--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asanikushin/hse/soa-curriculum-2021/tasks/02-serialization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asanikushin/hse/soa-benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320F8E54-35B1-1245-820A-9B7494603E03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95110373-5DCD-9148-9E65-EF90D1F8F7BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29420" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Сравнение форматов сериализации в языке XXXXX</t>
   </si>
@@ -78,13 +78,16 @@
   <si>
     <t>AVRO</t>
   </si>
+  <si>
+    <t>Message Pack</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -221,10 +224,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -237,31 +240,6 @@
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -328,6 +306,31 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -738,7 +741,7 @@
             <c:strRef>
               <c:f>СЕРИАЛИЗАЦИЯ!$B$16:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Нативная сериализация</c:v>
                 </c:pt>
@@ -753,6 +756,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>YAML</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Message Pack</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -777,6 +783,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.7044424297370806</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0226654578422485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,7 +919,7 @@
             <c:strRef>
               <c:f>СЕРИАЛИЗАЦИЯ!$B$16:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Нативная сериализация</c:v>
                 </c:pt>
@@ -925,6 +934,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>YAML</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Message Pack</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -936,19 +948,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>1.073394495412844</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.348623853211009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2935779816513762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3853211009174311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>745.45871559633019</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.273504273504273</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.1367521367521367</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1538461538461542</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>694.48717948717945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,19 +1217,19 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Объем сериализованных данных (байт)" dataDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Время сериализации (с)" dataDxfId="8" totalsRowDxfId="7"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Время десериализации (с)" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Общее время сериализации/_x000a_десериализации" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Общее время сериализации/_x000a_десериализации" dataDxfId="4">
       <calculatedColumnFormula>D16+E16</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Относительный объем данных" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Относительный объем данных" dataDxfId="3">
       <calculatedColumnFormula>Таблица1[[#This Row],[Объем сериализованных данных (байт)]]/MIN(Таблица1[Объем сериализованных данных (байт)])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Относительное время сериализации" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Относительное время сериализации" dataDxfId="2">
       <calculatedColumnFormula>Таблица1[[#This Row],[Время сериализации (с)]]/MIN(Таблица1[Время сериализации (с)])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Относительное время десериаилзации" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Относительное время десериаилзации" dataDxfId="1">
       <calculatedColumnFormula>Таблица1[[#This Row],[Время десериализации (с)]]/MIN(Таблица1[Время десериализации (с)])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Относительное общее время" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Относительное общее время" dataDxfId="0">
       <calculatedColumnFormula>Таблица1[[#This Row],[Общее время сериализации/
 десериализации]]/MIN(Таблица1[Общее время сериализации/
 десериализации])</calculatedColumnFormula>
@@ -1439,7 +1454,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1694,7 +1709,7 @@
       </c>
       <c r="H16" s="6">
         <f>Таблица1[[#This Row],[Время сериализации (с)]]/MIN(Таблица1[Время сериализации (с)])</f>
-        <v>1</v>
+        <v>1.2941176470588234</v>
       </c>
       <c r="I16" s="6">
         <f>Таблица1[[#This Row],[Время десериализации (с)]]/MIN(Таблица1[Время десериализации (с)])</f>
@@ -1704,7 +1719,7 @@
         <f>Таблица1[[#This Row],[Общее время сериализации/
 десериализации]]/MIN(Таблица1[Общее время сериализации/
 десериализации])</f>
-        <v>1</v>
+        <v>1.073394495412844</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1730,7 +1745,7 @@
       </c>
       <c r="H17" s="6">
         <f>Таблица1[[#This Row],[Время сериализации (с)]]/MIN(Таблица1[Время сериализации (с)])</f>
-        <v>65.159090909090907</v>
+        <v>84.323529411764696</v>
       </c>
       <c r="I17" s="6">
         <f>Таблица1[[#This Row],[Время десериализации (с)]]/MIN(Таблица1[Время десериализации (с)])</f>
@@ -1740,7 +1755,7 @@
         <f>Таблица1[[#This Row],[Общее время сериализации/
 десериализации]]/MIN(Таблица1[Общее время сериализации/
 десериализации])</f>
-        <v>28.273504273504273</v>
+        <v>30.348623853211009</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1766,7 +1781,7 @@
       </c>
       <c r="H18" s="6">
         <f>Таблица1[[#This Row],[Время сериализации (с)]]/MIN(Таблица1[Время сериализации (с)])</f>
-        <v>2.7272727272727275</v>
+        <v>3.5294117647058818</v>
       </c>
       <c r="I18" s="6">
         <f>Таблица1[[#This Row],[Время десериализации (с)]]/MIN(Таблица1[Время десериализации (с)])</f>
@@ -1776,7 +1791,7 @@
         <f>Таблица1[[#This Row],[Общее время сериализации/
 десериализации]]/MIN(Таблица1[Общее время сериализации/
 десериализации])</f>
-        <v>2.1367521367521367</v>
+        <v>2.2935779816513762</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1802,7 +1817,7 @@
       </c>
       <c r="H19" s="6">
         <f>Таблица1[[#This Row],[Время сериализации (с)]]/MIN(Таблица1[Время сериализации (с)])</f>
-        <v>3.3409090909090908</v>
+        <v>4.3235294117647056</v>
       </c>
       <c r="I19" s="6">
         <f>Таблица1[[#This Row],[Время десериализации (с)]]/MIN(Таблица1[Время десериализации (с)])</f>
@@ -1812,7 +1827,7 @@
         <f>Таблица1[[#This Row],[Общее время сериализации/
 десериализации]]/MIN(Таблица1[Общее время сериализации/
 десериализации])</f>
-        <v>3.1538461538461542</v>
+        <v>3.3853211009174311</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1838,7 +1853,7 @@
       </c>
       <c r="H20" s="6">
         <f>Таблица1[[#This Row],[Время сериализации (с)]]/MIN(Таблица1[Время сериализации (с)])</f>
-        <v>647.36363636363649</v>
+        <v>837.76470588235293</v>
       </c>
       <c r="I20" s="6">
         <f>Таблица1[[#This Row],[Время десериализации (с)]]/MIN(Таблица1[Время десериализации (с)])</f>
@@ -1848,23 +1863,48 @@
         <f>Таблица1[[#This Row],[Общее время сериализации/
 десериализации]]/MIN(Таблица1[Общее время сериализации/
 десериализации])</f>
-        <v>694.48717948717945</v>
+        <v>745.45871559633019</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="9"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="B21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1128</v>
+      </c>
+      <c r="D21" s="10">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E21" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="0"/>
+        <v>0.109</v>
+      </c>
+      <c r="G21" s="6">
+        <f>Таблица1[[#This Row],[Объем сериализованных данных (байт)]]/MIN(Таблица1[Объем сериализованных данных (байт)])</f>
+        <v>1.0226654578422485</v>
+      </c>
+      <c r="H21" s="6">
+        <f>Таблица1[[#This Row],[Время сериализации (с)]]/MIN(Таблица1[Время сериализации (с)])</f>
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <f>Таблица1[[#This Row],[Время десериализации (с)]]/MIN(Таблица1[Время десериализации (с)])</f>
+        <v>1.0273972602739727</v>
+      </c>
+      <c r="J21" s="6">
+        <f>Таблица1[[#This Row],[Общее время сериализации/
+десериализации]]/MIN(Таблица1[Общее время сериализации/
+десериализации])</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G16:G21">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1876,7 +1916,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H21">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1888,7 +1928,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I21">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1900,7 +1940,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:J21">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
